--- a/om-ch-104-monte-carlo.xlsx
+++ b/om-ch-104-monte-carlo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991BA21-B4BC-41BE-954F-58A87035FEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B7D0C8-4C41-4B55-8C1F-7A813C980F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{37D13774-6689-4F5E-B91D-770FBE1F9FCE}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -628,7 +628,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
